--- a/data/trans_camb/P16A10-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-3.023034724277888</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.015253848202884</v>
+        <v>-1.015253848202885</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.103580176091786</v>
+        <v>-7.130769087001866</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.14173158536446</v>
+        <v>-6.195097647792588</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.381772469390934</v>
+        <v>-4.760363360241501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.251775419978035</v>
+        <v>-4.233753880845372</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.948822817531306</v>
+        <v>-5.514290889626627</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.336816334937028</v>
+        <v>-3.387082929503466</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.618102894465345</v>
+        <v>-4.762204417352272</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.845751813006196</v>
+        <v>-4.91031993096073</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.952842233252997</v>
+        <v>-2.932390535062791</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.675876758972681</v>
+        <v>-1.640214959132457</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8190283911006825</v>
+        <v>-0.9376168436212131</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.902091754569436</v>
+        <v>1.982219731882043</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6272082995441469</v>
+        <v>0.55935623266614</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.3591274009049643</v>
+        <v>-0.5643660279274606</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.616939009683969</v>
+        <v>1.719502619017744</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.181774664296666</v>
+        <v>-1.195998523357656</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.343675302319203</v>
+        <v>-1.355664064441691</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8330782700884584</v>
+        <v>1.01303994363015</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.3427727995951241</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1151165750937091</v>
+        <v>-0.1151165750937092</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6519099249404108</v>
+        <v>-0.6346532325159701</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.546493184154206</v>
+        <v>-0.5602164158238702</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4076594033441402</v>
+        <v>-0.4262449899040455</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4094819548615388</v>
+        <v>-0.4162753401554714</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5012839653148184</v>
+        <v>-0.5331859985150049</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3344925562522835</v>
+        <v>-0.3423806461218904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4660551311272766</v>
+        <v>-0.4756545295140164</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4817111346161405</v>
+        <v>-0.4887587338402834</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.302152421930408</v>
+        <v>-0.3064085354892343</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2202638854659539</v>
+        <v>-0.2108398248831178</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.09902412739292789</v>
+        <v>-0.1290665505880799</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2609184939814574</v>
+        <v>0.299174514789927</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.09063156106561882</v>
+        <v>0.08575432763712698</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.04484158552576741</v>
+        <v>-0.07251528192743452</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2153636121384933</v>
+        <v>0.2420792177373293</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1516509773400767</v>
+        <v>-0.1497642604646306</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1729119255149986</v>
+        <v>-0.1687097187491499</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1069235636371376</v>
+        <v>0.1207075513054926</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.872350796312093</v>
+        <v>-2.758218467100038</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.610327710612047</v>
+        <v>-1.725744288241293</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8129557268995666</v>
+        <v>-0.8729193134336193</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.30636038681961</v>
+        <v>-2.409726900876632</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.536643796996239</v>
+        <v>-1.527024351103333</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.580377946787603</v>
+        <v>-0.6421259270335299</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.122545407685513</v>
+        <v>-2.107147454610952</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.022039945390585</v>
+        <v>-0.9589316471878656</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.1856673253097989</v>
+        <v>-0.2480877828064221</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.370745536631069</v>
+        <v>1.360304277778548</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.544804994781264</v>
+        <v>2.418112449309745</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.41477774709841</v>
+        <v>3.297087748523295</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.272022539270808</v>
+        <v>1.015576593166464</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.498443302019942</v>
+        <v>2.425731084200663</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.807613784930975</v>
+        <v>2.906824298883103</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.647729053001132</v>
+        <v>0.7007660329134868</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.950077360875826</v>
+        <v>1.991588111159097</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.442491827168008</v>
+        <v>2.489673256792118</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4119830697057572</v>
+        <v>-0.4045322852655859</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2345601423788181</v>
+        <v>-0.2503480697037911</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1346929950356693</v>
+        <v>-0.1244203250300122</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4017095451423604</v>
+        <v>-0.4146113192165572</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2608383796561269</v>
+        <v>-0.2676110749999124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.09076715349220132</v>
+        <v>-0.1071985627017552</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3507680218407389</v>
+        <v>-0.3406845992449051</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1586718509459295</v>
+        <v>-0.1588074997633157</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.03396260275274676</v>
+        <v>-0.03947379423807077</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2718790009104933</v>
+        <v>0.2721816663716331</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5183745606193134</v>
+        <v>0.5008158118651069</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6980782156334429</v>
+        <v>0.6925978438757605</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3143158809425337</v>
+        <v>0.2564174687611177</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.630791247957309</v>
+        <v>0.6110799767642784</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7471479673489675</v>
+        <v>0.7702231989767384</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1397356695637453</v>
+        <v>0.1500270984592267</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4222080118405482</v>
+        <v>0.4379671317859153</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5229877336728408</v>
+        <v>0.5446195558445266</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.182392700167816</v>
+        <v>1.34300884286039</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.125244769609149</v>
+        <v>1.35127348280064</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2895309194111986</v>
+        <v>-0.2896212359953433</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9033544892803237</v>
+        <v>-0.7790945367341883</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9447638954728912</v>
+        <v>-0.9682801285585703</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2209114558453696</v>
+        <v>0.3595872427838002</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8324099966817208</v>
+        <v>0.784653359919252</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6256417585379893</v>
+        <v>0.5890016559603339</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4613231892808241</v>
+        <v>0.3751041542754964</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.177935806768784</v>
+        <v>5.29893395778982</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.117486756278047</v>
+        <v>5.259792067051066</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.696384080504967</v>
+        <v>2.936872078125171</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.632334089435404</v>
+        <v>2.858424985245578</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.040617955502182</v>
+        <v>2.815807417507473</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.392680074614925</v>
+        <v>3.520150949748858</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.452632990849474</v>
+        <v>3.46942517978515</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.369416748025649</v>
+        <v>3.684901150256215</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.698038912556243</v>
+        <v>2.611719518694315</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.2519690034943232</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.571358505560802</v>
+        <v>0.5713585055608023</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6383773501422868</v>
@@ -1197,7 +1197,7 @@
         <v>0.6029368713557676</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4534218092086028</v>
+        <v>0.453421809208603</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2656651242945147</v>
+        <v>0.2788304654479087</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2235310543105915</v>
+        <v>0.3046330333036353</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09255946516980866</v>
+        <v>-0.09148939535000331</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2468188289403607</v>
+        <v>-0.2052705411904787</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2539962147970052</v>
+        <v>-0.2714181599661829</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04172720969070989</v>
+        <v>0.07817544417332203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1895102813190142</v>
+        <v>0.1754529628812789</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1745078516527141</v>
+        <v>0.1333704632567852</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1147103299245878</v>
+        <v>0.09585281359869721</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.897012168299181</v>
+        <v>2.000977938156238</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.813804165988794</v>
+        <v>2.010917133459728</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9958788804400637</v>
+        <v>1.122165752141665</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.044793097937992</v>
+        <v>1.165013771072797</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.209559274876442</v>
+        <v>1.139219648279334</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.347155519309195</v>
+        <v>1.45462312777132</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.195575386215104</v>
+        <v>1.193125847590732</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.179787200438112</v>
+        <v>1.303197397965957</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9444250920661662</v>
+        <v>0.9702837012473914</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.805743859536286</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.5433089603988</v>
+        <v>1.543308960398802</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.390760666826253</v>
@@ -1297,7 +1297,7 @@
         <v>2.480668325859045</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.7111715480330828</v>
+        <v>-0.7111715480330836</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.2631528557110643</v>
@@ -1306,7 +1306,7 @@
         <v>2.147564171579836</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.464827099665615</v>
+        <v>0.4648270996656135</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.710077190892273</v>
+        <v>-1.730486848890338</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9529934822228944</v>
+        <v>-0.686194457919988</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7860057554346251</v>
+        <v>-0.6826901398087332</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.231375088279487</v>
+        <v>-3.905630968628059</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6948579354982083</v>
+        <v>-0.439167962377695</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.597733469543322</v>
+        <v>-3.21876167421103</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.15949815688848</v>
+        <v>-2.056771627003166</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08272750042265467</v>
+        <v>-0.03811949225333292</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.173224983053179</v>
+        <v>-1.292074009684948</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.370098768919978</v>
+        <v>3.368186399469521</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.481036738353559</v>
+        <v>4.537379974613826</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.701392058770366</v>
+        <v>3.715423934967813</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.014717281534633</v>
+        <v>1.162534035664972</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.506858191840037</v>
+        <v>5.927430020743929</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.13467445647821</v>
+        <v>1.284909073234644</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.399024951558286</v>
+        <v>1.484534460759288</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.199945580188666</v>
+        <v>4.169832857318499</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.785590486140421</v>
+        <v>1.773462904348781</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.5165383992685058</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4414681161844587</v>
+        <v>0.4414681161844594</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3791461938953659</v>
@@ -1402,7 +1402,7 @@
         <v>0.6762744852517077</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1938780640516234</v>
+        <v>-0.1938780640516236</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.07370381277055689</v>
@@ -1411,7 +1411,7 @@
         <v>0.6014894544358208</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1301887050849702</v>
+        <v>0.1301887050849698</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3876901828112277</v>
+        <v>-0.3920602213327751</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2050712092266944</v>
+        <v>-0.1953626881883329</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1637624439986833</v>
+        <v>-0.1532539011987674</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7749958425732992</v>
+        <v>-0.751944331529208</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.181047011074412</v>
+        <v>-0.1098789608523204</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5956620895499589</v>
+        <v>-0.5465194933506351</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4773312553525346</v>
+        <v>-0.4740567666094374</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01214819383544036</v>
+        <v>-0.01608770529417016</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2524391354841541</v>
+        <v>-0.2596077187815371</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.566600495382055</v>
+        <v>1.501133385329272</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.940805126873063</v>
+        <v>1.931319545548906</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.693488203957621</v>
+        <v>1.95876085041934</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5268951725809019</v>
+        <v>0.5810200059093038</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.37860700001261</v>
+        <v>2.908868115034855</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.558111012296461</v>
+        <v>0.6279789823268468</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5152745690345725</v>
+        <v>0.5820438748727557</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.496281911234204</v>
+        <v>1.653711693613477</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7052329937289732</v>
+        <v>0.7259728688450908</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.7413370265619661</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.6164407113373744</v>
+        <v>0.6164407113373731</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.5388580009473877</v>
@@ -1520,7 +1520,7 @@
         <v>0.3902371122670202</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.2948894918384993</v>
+        <v>0.2948894918384987</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.047634856719638</v>
+        <v>-0.9261594460793379</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.375071295260788</v>
+        <v>-0.3107960671691322</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5314740479092404</v>
+        <v>-0.4363378389471697</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.635535758890307</v>
+        <v>-1.632491288954677</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.127823927229272</v>
+        <v>-1.017087015865493</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.146244594298149</v>
+        <v>-1.091890658392672</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.022148910986365</v>
+        <v>-1.052154588786434</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.4281333321185387</v>
+        <v>-0.4053417060279496</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.4245389526970303</v>
+        <v>-0.4989263710907672</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.161324995947777</v>
+        <v>1.254940275559574</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.798809348059059</v>
+        <v>1.943610457651471</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.596167946660507</v>
+        <v>1.628065413740983</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4813284976243057</v>
+        <v>0.4041367550230162</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.189030378188406</v>
+        <v>1.238892191712857</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8580018403845434</v>
+        <v>0.8796938664272965</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5097652223765702</v>
+        <v>0.4873334137649594</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.194516074614614</v>
+        <v>1.149337773448958</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.9777267180072411</v>
+        <v>1.018434669263363</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1417716837511747</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1178867835380761</v>
+        <v>0.1178867835380758</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1010706655673463</v>
@@ -1625,7 +1625,7 @@
         <v>0.0738951021796663</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.05584012500637135</v>
+        <v>0.05584012500637122</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1850020930352401</v>
+        <v>-0.1621702698653198</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06455747488301392</v>
+        <v>-0.05557098328368271</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.08837440348740382</v>
+        <v>-0.07723702089107111</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2766439429558626</v>
+        <v>-0.278292363369315</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1967788427206183</v>
+        <v>-0.1677510420855185</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1927236550936415</v>
+        <v>-0.178607588421811</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.181776159820129</v>
+        <v>-0.1834066753458937</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.07470805840950533</v>
+        <v>-0.07156738921840484</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.07659337517913278</v>
+        <v>-0.0867387285197752</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2468290688282037</v>
+        <v>0.2751761322511971</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3821042708540469</v>
+        <v>0.4185737552657475</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3388053440164162</v>
+        <v>0.356357975158633</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.09968346548473393</v>
+        <v>0.08357981862335412</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2485489808353267</v>
+        <v>0.2588372775435855</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1778486386107791</v>
+        <v>0.1861850488824487</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.104683806330999</v>
+        <v>0.100725687571804</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2457616172559125</v>
+        <v>0.2324018089923465</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1992843686455339</v>
+        <v>0.2075068234641313</v>
       </c>
     </row>
     <row r="34">
